--- a/exercises/excercises/ex004.Linest.xlsx
+++ b/exercises/excercises/ex004.Linest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF724BE8-8B2F-46FB-AB0D-1159CB908865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A62B1C-BA8F-4D25-9AA0-AC70B03C3C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="780" windowWidth="28770" windowHeight="17475" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-34215" yWindow="1500" windowWidth="28770" windowHeight="17475" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2751,130 +2750,12 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="crv_linest"/>
+      <definedName name="crv_fit_linear"/>
       <definedName name="getUFVersion"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="z_ablas"/>
-      <sheetName val="z_ablasf"/>
-      <sheetName val="z_airyf"/>
-      <sheetName val="z_ap"/>
-      <sheetName val="z_apserv"/>
-      <sheetName val="z_autogk"/>
-      <sheetName val="z_bdss"/>
-      <sheetName val="z_bdsvd"/>
-      <sheetName val="z_bessel"/>
-      <sheetName val="z_betaf"/>
-      <sheetName val="z_binomialdistr"/>
-      <sheetName val="z_blas"/>
-      <sheetName val="z_chebyshev"/>
-      <sheetName val="z_chisquaredistr"/>
-      <sheetName val="z_conv"/>
-      <sheetName val="z_corr"/>
-      <sheetName val="z_correlation"/>
-      <sheetName val="z_correlationtests"/>
-      <sheetName val="z_creflections"/>
-      <sheetName val="z_dawson"/>
-      <sheetName val="z_densesolver"/>
-      <sheetName val="z_descriptivestatistics"/>
-      <sheetName val="z_dforest"/>
-      <sheetName val="z_elliptic"/>
-      <sheetName val="z_estnorm"/>
-      <sheetName val="z_evd"/>
-      <sheetName val="z_expintegrals"/>
-      <sheetName val="z_fdistr"/>
-      <sheetName val="z_fft"/>
-      <sheetName val="z_fht"/>
-      <sheetName val="z_fresnel"/>
-      <sheetName val="z_ftbase"/>
-      <sheetName val="z_gammafunc"/>
-      <sheetName val="z_gkq"/>
-      <sheetName val="z_gq"/>
-      <sheetName val="z_hblas"/>
-      <sheetName val="z_hermite"/>
-      <sheetName val="z_hqrnd"/>
-      <sheetName val="z_hsschur"/>
-      <sheetName val="z_ibetaf"/>
-      <sheetName val="z_idwint"/>
-      <sheetName val="z_igammaf"/>
-      <sheetName val="z_inverseupdate"/>
-      <sheetName val="z_jacobianelliptic"/>
-      <sheetName val="z_jarquebera"/>
-      <sheetName val="z_kmeans"/>
-      <sheetName val="z_laguerre"/>
-      <sheetName val="z_lda"/>
-      <sheetName val="z_ldlt"/>
-      <sheetName val="z_legendre"/>
-      <sheetName val="z_linmin"/>
-      <sheetName val="z_linreg"/>
-      <sheetName val="z_logit"/>
-      <sheetName val="z_lsfit"/>
-      <sheetName val="z_mannwhitneyu"/>
-      <sheetName val="z_matdet"/>
-      <sheetName val="z_matgen"/>
-      <sheetName val="z_matinv"/>
-      <sheetName val="z_minasa"/>
-      <sheetName val="z_mincg"/>
-      <sheetName val="z_minlbfgs"/>
-      <sheetName val="z_minlm"/>
-      <sheetName val="z_mlpbase"/>
-      <sheetName val="z_mlpe"/>
-      <sheetName val="z_mlptrain"/>
-      <sheetName val="z_nearestneighbor"/>
-      <sheetName val="z_nearunityunit"/>
-      <sheetName val="z_normaldistr"/>
-      <sheetName val="z_odesolver"/>
-      <sheetName val="z_ortfac"/>
-      <sheetName val="z_pca"/>
-      <sheetName val="z_poissondistr"/>
-      <sheetName val="z_polint"/>
-      <sheetName val="z_psif"/>
-      <sheetName val="z_pspline"/>
-      <sheetName val="z_ratint"/>
-      <sheetName val="z_ratinterpolation"/>
-      <sheetName val="z_rcond"/>
-      <sheetName val="z_reflections"/>
-      <sheetName val="z_rotations"/>
-      <sheetName val="z_safesolve"/>
-      <sheetName val="z_sblas"/>
-      <sheetName val="z_schur"/>
-      <sheetName val="z_sdet"/>
-      <sheetName val="z_sinverse"/>
-      <sheetName val="z_spdgevd"/>
-      <sheetName val="z_spline1d"/>
-      <sheetName val="z_spline2d"/>
-      <sheetName val="z_spline3"/>
-      <sheetName val="z_srcond"/>
-      <sheetName val="z_ssolve"/>
-      <sheetName val="z_stest"/>
-      <sheetName val="z_studenttdistr"/>
-      <sheetName val="z_studentttests"/>
-      <sheetName val="z_svd"/>
-      <sheetName val="z_trfac"/>
-      <sheetName val="z_trigintegrals"/>
-      <sheetName val="z_trlinsolve"/>
-      <sheetName val="z_tsort"/>
-      <sheetName val="z_variancetests"/>
-      <sheetName val="z_wsr"/>
-      <sheetName val="z_xblas"/>
-      <sheetName val="Alglib-info"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="al_linestcw"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="102"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3180,8 +3061,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,7 +3352,7 @@
         <v>36</v>
       </c>
       <c r="D45" s="10">
-        <f t="array" ref="D45:F45">[2]!crv_linest($D$50:$D$150,$A$50:$C$150)</f>
+        <f t="array" ref="D45:F45">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150)</f>
         <v>-4.8096034239943499</v>
       </c>
       <c r="E45" s="10">
@@ -3481,7 +3362,7 @@
         <v>-2.9213538367672309</v>
       </c>
       <c r="J45">
-        <f t="array" ref="J45:O45">[2]!crv_linest($D$50:$D$150,$A$50:$C$150,2)</f>
+        <f t="array" ref="J45:O45">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,2)</f>
         <v>5.4463281610757663</v>
       </c>
       <c r="K45">
@@ -3505,7 +3386,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="10">
-        <f t="array" ref="D46:F46">[3]!al_linestcw($D$50:$D$150,$A$50:$C$150,,E50:E150,K50:N51)</f>
+        <f t="array" ref="D46:F46">[2]!crv_fit_linear($D$50:$D$150,$A$50:$C$150,,E50:E150,K50:N51)</f>
         <v>7.5328204286921832</v>
       </c>
       <c r="E46" s="10">

--- a/exercises/excercises/ex004.Linest.xlsx
+++ b/exercises/excercises/ex004.Linest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A62B1C-BA8F-4D25-9AA0-AC70B03C3C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE4E8C-9073-4357-8AED-CF527345526F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34215" yWindow="1500" windowWidth="28770" windowHeight="17475" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
+    <workbookView xWindow="-31785" yWindow="2130" windowWidth="28770" windowHeight="17400" xr2:uid="{C4FD2C4D-0CD4-47A5-ADAA-FEAE3A845033}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Lin" sheetId="2" r:id="rId1"/>
@@ -1728,10 +1728,18 @@
       <sheetName val="About"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12">
         <row r="43">
           <cell r="B43">
@@ -2731,12 +2739,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="13">
+        <row r="41">
+          <cell r="E41" t="str">
+            <v>AL_FitPolyCW</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
